--- a/1.xlsx
+++ b/1.xlsx
@@ -525,14 +525,14 @@
     <row r="23" spans="1:6" customFormat="false"/>
     <row r="24" spans="1:6" customFormat="false"/>
     <row r="25" spans="1:6" customFormat="false"/>
-    <row r="75" customFormat="false" ht="30" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="26" spans="1:6" customFormat="false"/>
+    <row r="27" spans="1:6" customFormat="false"/>
+    <row r="28" spans="1:6" customFormat="false"/>
+    <row r="29" spans="1:6" customFormat="false"/>
+    <row r="30" spans="1:6" customFormat="false"/>
+    <row r="31" spans="1:6" customFormat="false"/>
+    <row r="32" spans="1:6" customFormat="false"/>
+    <row r="82" customFormat="false" ht="30" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
     <row r="83" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
     <row r="85" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
@@ -552,6 +552,13 @@
     <row r="99" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
     <row r="100" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
     <row r="101" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="1"/>
   <pageMargins left="0.590277777777778" right="0.39375" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -463,7 +463,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="false" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="false" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
@@ -501,8 +501,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="false"/>
-    <row r="3" spans="1:6" customFormat="false"/>
+    <row r="2" spans="1:6" customFormat="false">
+      <c r="A2" s="0" t="str">
+        <v>Без логина</v>
+      </c>
+      <c r="B2" s="0" t="str">
+        <v>Без логина</v>
+      </c>
+      <c r="C2" s="0" t="str">
+        <v>2000 x 900 x 400 5п  оцинкованный</v>
+      </c>
+      <c r="D2" s="0" t="str">
+        <v>609.66</v>
+      </c>
+      <c r="E2" s="0" t="str">
+        <v>21:04</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <v>20160317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customFormat="false">
+      <c r="A3" s="0" t="str">
+        <v>Без логина</v>
+      </c>
+      <c r="B3" s="0" t="str">
+        <v>Без логина</v>
+      </c>
+      <c r="C3" s="0" t="str">
+        <v>2000 x 900 x 400 5п  оцинкованный</v>
+      </c>
+      <c r="D3" s="0" t="str">
+        <v>609.66</v>
+      </c>
+      <c r="E3" s="0" t="str">
+        <v>21:03</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <v>20160317</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" customFormat="false"/>
     <row r="5" spans="1:6" customFormat="false"/>
     <row r="6" spans="1:6" customFormat="false"/>
@@ -532,9 +570,9 @@
     <row r="30" spans="1:6" customFormat="false"/>
     <row r="31" spans="1:6" customFormat="false"/>
     <row r="32" spans="1:6" customFormat="false"/>
-    <row r="82" customFormat="false" ht="30" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="33" spans="1:6" customFormat="false"/>
+    <row r="34" spans="1:6" customFormat="false"/>
+    <row r="84" customFormat="false" ht="30" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
     <row r="85" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
     <row r="86" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
     <row r="87" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
@@ -559,6 +597,8 @@
     <row r="106" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
     <row r="107" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
     <row r="108" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="1"/>
   <pageMargins left="0.590277777777778" right="0.39375" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -594,7 +634,7 @@
     </row>
     <row r="2" spans="1:1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -463,10 +463,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="false" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="false" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -503,102 +503,51 @@
     </row>
     <row r="2" spans="1:6" customFormat="false">
       <c r="A2" s="0" t="str">
-        <v>Без логина</v>
+        <v/>
       </c>
       <c r="B2" s="0" t="str">
-        <v>Без логина</v>
+        <v>kremenchuk@bk.ru</v>
       </c>
       <c r="C2" s="0" t="str">
         <v>2000 x 900 x 400 5п  оцинкованный</v>
       </c>
       <c r="D2" s="0" t="str">
-        <v>609.66</v>
+        <v>586.21</v>
       </c>
       <c r="E2" s="0" t="str">
-        <v>21:04</v>
+        <v>21:21</v>
       </c>
       <c r="F2" s="0" t="str">
         <v>20160317</v>
       </c>
     </row>
-    <row r="3" spans="1:6" customFormat="false">
-      <c r="A3" s="0" t="str">
-        <v>Без логина</v>
-      </c>
-      <c r="B3" s="0" t="str">
-        <v>Без логина</v>
-      </c>
-      <c r="C3" s="0" t="str">
-        <v>2000 x 900 x 400 5п  оцинкованный</v>
-      </c>
-      <c r="D3" s="0" t="str">
-        <v>609.66</v>
-      </c>
-      <c r="E3" s="0" t="str">
-        <v>21:03</v>
-      </c>
-      <c r="F3" s="0" t="str">
-        <v>20160317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" customFormat="false"/>
-    <row r="5" spans="1:6" customFormat="false"/>
-    <row r="6" spans="1:6" customFormat="false"/>
-    <row r="7" spans="1:6" customFormat="false"/>
-    <row r="8" spans="1:6" customFormat="false"/>
-    <row r="9" spans="1:6" customFormat="false"/>
-    <row r="10" spans="1:6" customFormat="false"/>
-    <row r="11" spans="1:6" customFormat="false"/>
-    <row r="12" spans="1:6" customFormat="false"/>
-    <row r="13" spans="1:6" customFormat="false"/>
-    <row r="14" spans="1:6" customFormat="false"/>
-    <row r="15" spans="1:6" customFormat="false"/>
-    <row r="16" spans="1:6" customFormat="false"/>
-    <row r="17" spans="1:6" customFormat="false"/>
-    <row r="18" spans="1:6" customFormat="false"/>
-    <row r="19" spans="1:6" customFormat="false"/>
-    <row r="20" spans="1:6" customFormat="false"/>
-    <row r="21" spans="1:6" customFormat="false"/>
-    <row r="22" spans="1:6" customFormat="false"/>
-    <row r="23" spans="1:6" customFormat="false"/>
-    <row r="24" spans="1:6" customFormat="false"/>
-    <row r="25" spans="1:6" customFormat="false"/>
-    <row r="26" spans="1:6" customFormat="false"/>
-    <row r="27" spans="1:6" customFormat="false"/>
-    <row r="28" spans="1:6" customFormat="false"/>
-    <row r="29" spans="1:6" customFormat="false"/>
-    <row r="30" spans="1:6" customFormat="false"/>
-    <row r="31" spans="1:6" customFormat="false"/>
-    <row r="32" spans="1:6" customFormat="false"/>
-    <row r="33" spans="1:6" customFormat="false"/>
-    <row r="34" spans="1:6" customFormat="false"/>
-    <row r="84" customFormat="false" ht="30" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="30" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15.95" hidden="false" customHeight="1" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="1"/>
   <pageMargins left="0.590277777777778" right="0.39375" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -634,7 +583,7 @@
     </row>
     <row r="2" spans="1:1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -463,7 +463,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="false" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="false" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
@@ -501,46 +501,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="false">
-      <c r="A2" s="0" t="str">
-        <v>Без логина</v>
-      </c>
-      <c r="B2" s="0" t="str">
-        <v>Без логина</v>
-      </c>
-      <c r="C2" s="0" t="str">
-        <v>2000 x 900 x 400 5п  оцинкованный</v>
-      </c>
-      <c r="D2" s="0" t="str">
-        <v>609.66</v>
-      </c>
-      <c r="E2" s="0" t="str">
-        <v>21:04</v>
-      </c>
-      <c r="F2" s="0" t="str">
-        <v>20160317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" customFormat="false">
-      <c r="A3" s="0" t="str">
-        <v>Без логина</v>
-      </c>
-      <c r="B3" s="0" t="str">
-        <v>Без логина</v>
-      </c>
-      <c r="C3" s="0" t="str">
-        <v>2000 x 900 x 400 5п  оцинкованный</v>
-      </c>
-      <c r="D3" s="0" t="str">
-        <v>609.66</v>
-      </c>
-      <c r="E3" s="0" t="str">
-        <v>21:03</v>
-      </c>
-      <c r="F3" s="0" t="str">
-        <v>20160317</v>
-      </c>
-    </row>
+    <row r="2" spans="1:6" customFormat="false"/>
+    <row r="3" spans="1:6" customFormat="false"/>
     <row r="4" spans="1:6" customFormat="false"/>
     <row r="5" spans="1:6" customFormat="false"/>
     <row r="6" spans="1:6" customFormat="false"/>
@@ -634,7 +596,7 @@
     </row>
     <row r="2" spans="1:1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -463,7 +463,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="false" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="false" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
@@ -501,8 +501,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="false"/>
-    <row r="3" spans="1:6" customFormat="false"/>
+    <row r="2" spans="1:6" customFormat="false">
+      <c r="A2" s="0" t="str">
+        <v>Без логина</v>
+      </c>
+      <c r="B2" s="0" t="str">
+        <v>Без логина</v>
+      </c>
+      <c r="C2" s="0" t="str">
+        <v>2000 x 900 x 400 5п  оцинкованный</v>
+      </c>
+      <c r="D2" s="0" t="str">
+        <v>609.66</v>
+      </c>
+      <c r="E2" s="0" t="str">
+        <v>21:04</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <v>20160317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customFormat="false">
+      <c r="A3" s="0" t="str">
+        <v>Без логина</v>
+      </c>
+      <c r="B3" s="0" t="str">
+        <v>Без логина</v>
+      </c>
+      <c r="C3" s="0" t="str">
+        <v>2000 x 900 x 400 5п  оцинкованный</v>
+      </c>
+      <c r="D3" s="0" t="str">
+        <v>609.66</v>
+      </c>
+      <c r="E3" s="0" t="str">
+        <v>21:03</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <v>20160317</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" customFormat="false"/>
     <row r="5" spans="1:6" customFormat="false"/>
     <row r="6" spans="1:6" customFormat="false"/>
@@ -596,7 +634,7 @@
     </row>
     <row r="2" spans="1:1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
